--- a/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
+++ b/ResourceFiles/Contoso Chai Tea market trends 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/Modern Work/Learn courses/MS-4004T00 - V1 Feb 2024/Use Case files/M4 - Marketing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/maquinl_microsoft_com/Documents/Desktop/Source files/MS-4004_4005/ms-4004/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="129" documentId="8_{E9940EB0-3E9A-4FED-B851-3DB695644D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7975C8B-1AB2-4D63-AC24-1E6DEC7702F9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="2340" windowWidth="43935" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,17 +488,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44957</v>
       </c>
@@ -560,7 +560,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44985</v>
       </c>
@@ -581,7 +581,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45016</v>
       </c>
@@ -602,7 +602,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45046</v>
       </c>
@@ -623,7 +623,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45077</v>
       </c>
@@ -644,7 +644,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45107</v>
       </c>
@@ -665,7 +665,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45137</v>
       </c>
@@ -686,7 +686,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45167</v>
       </c>
@@ -707,7 +707,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45199</v>
       </c>
@@ -728,7 +728,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45230</v>
       </c>
@@ -749,7 +749,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45260</v>
       </c>
@@ -770,7 +770,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45291</v>
       </c>
@@ -801,6 +801,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>